--- a/Documents/new_burndown.xlsx
+++ b/Documents/new_burndown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpvil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpvil\Desktop\Capstone\Project\capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C66BAA4-84E7-42DD-B716-1576414650CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF61EE89-00AB-4EF5-8F75-3996E4C8F1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -132,39 +132,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Connects burndown task to github issue!
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Best estimate in HOURS of how long to complete task. If having trouble, subdivide task more.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Enter HOURS (half hours can be .5) worked on task #1 in week ending 2/3/21
+          <t xml:space="preserve">Enter HOURS worked (half hours can be .5) on task #2 in week ending 2/3/21
 </t>
         </r>
       </text>
@@ -209,44 +177,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Enter HOURS worked (half hours can be .5) on task #2 in week ending 2/3/21
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Break big issues into smaller (easier to estimate) "tasks"
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Project Name:</t>
   </si>
@@ -303,9 +239,6 @@
   </si>
   <si>
     <t>Start</t>
-  </si>
-  <si>
-    <t>Agencie/Location reviews</t>
   </si>
   <si>
     <t>Jacob Villemagne</t>
@@ -414,7 +347,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -467,9 +399,6 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -512,6 +441,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -747,43 +679,43 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,43 +828,43 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,43 +977,43 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3076923076923084</c:v>
+                  <c:v>16.615384615384617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6153846153846159</c:v>
+                  <c:v>15.230769230769232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9230769230769234</c:v>
+                  <c:v>13.846153846153847</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2307692307692308</c:v>
+                  <c:v>12.461538461538462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5384615384615383</c:v>
+                  <c:v>11.076923076923077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8461538461538458</c:v>
+                  <c:v>9.6923076923076916</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1538461538461533</c:v>
+                  <c:v>8.3076923076923066</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4615384615384608</c:v>
+                  <c:v>6.9230769230769216</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7692307692307683</c:v>
+                  <c:v>5.5384615384615365</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0769230769230758</c:v>
+                  <c:v>4.1538461538461515</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3846153846153835</c:v>
+                  <c:v>2.7692307692307669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.69230769230769118</c:v>
+                  <c:v>1.3846153846153824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1839,10 +1771,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2143,7 +2071,7 @@
   <dimension ref="A1:S90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2157,1871 +2085,1872 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>44230</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7">
-        <f>COUNTA(A11:A90)</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7">
+      <c r="B5" s="6">
+        <f>COUNTA(A7:A90)</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6">
         <f>SUM(D7:D90)</f>
+        <v>18</v>
+      </c>
+      <c r="E5" s="8">
+        <f>SUM(E7:E90)</f>
+        <v>18</v>
+      </c>
+      <c r="F5" s="6">
+        <f>D5-SUM(F7:F90)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:R5" si="0">F5-SUM(G7:G90)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9">
-        <f>SUM(E7:E90)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <f>D5-SUM(F7:F90)</f>
-        <v>9</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" ref="G5:R5" si="0">F5-SUM(G7:G90)</f>
-        <v>9</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J5" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K5" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M5" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N5" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O5" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P5" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Q5" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="R5" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>44230</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>44237</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>44244</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>44251</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>44258</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>44265</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>44272</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>44279</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>44286</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="10">
         <v>44293</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>44300</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>44307</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="11">
         <v>44314</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="12">
+        <v>24</v>
+      </c>
+      <c r="B7" s="11">
         <v>44441</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14">
-        <f t="shared" ref="E7:E38" si="1">SUM(F7:R7)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13">
+        <f>SUM(F7:R7)</f>
+        <v>9</v>
+      </c>
+      <c r="F7" s="12">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="12">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11">
         <v>44441</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12">
         <v>3</v>
       </c>
-      <c r="E8" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="E8" s="13">
+        <f t="shared" ref="E7:E38" si="1">SUM(F8:R8)</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="12">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11">
         <v>44441</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12">
         <v>6</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="12">
+        <v>7</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14">
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14">
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14">
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14">
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14">
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14">
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14">
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14">
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14">
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14">
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14">
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14">
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14">
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14">
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14">
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14">
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13">
         <f t="shared" ref="E39:E70" si="2">SUM(F39:R39)</f>
         <v>0</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14">
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14">
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14">
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14">
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14">
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14">
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14">
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14">
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14">
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14">
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14">
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14">
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14">
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="14">
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14">
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="14">
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14">
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B57" s="12"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="14">
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="14">
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="14">
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="14">
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14">
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14">
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="14">
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="14">
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="14">
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="14">
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="14">
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="14">
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="14">
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="14">
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="14">
-        <f t="shared" ref="E71:E102" si="3">SUM(F71:R71)</f>
-        <v>0</v>
-      </c>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="13"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="13">
+        <f t="shared" ref="E71:E90" si="3">SUM(F71:R71)</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="14">
+      <c r="B72" s="11"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="14">
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14">
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="14">
+      <c r="B75" s="11"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="13"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="14">
+      <c r="B76" s="11"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="14">
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="14">
+      <c r="B78" s="11"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="14">
+      <c r="B79" s="11"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14">
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="13"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="14">
+      <c r="B81" s="11"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="14">
+      <c r="B82" s="11"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="14">
+      <c r="B83" s="11"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E84" s="14">
+      <c r="E84" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E85" s="14">
+      <c r="E85" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E86" s="14">
+      <c r="E86" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E87" s="14">
+      <c r="E87" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E88" s="14">
+      <c r="E88" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E89" s="14">
+      <c r="E89" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="E90" s="14">
+      <c r="E90" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4065,384 +3994,384 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="15"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F6" s="15"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <f>EffortRawData!D5</f>
-        <v>9</v>
-      </c>
-      <c r="C8" s="18">
+        <v>18</v>
+      </c>
+      <c r="C8" s="17">
         <f>B8</f>
-        <v>9</v>
-      </c>
-      <c r="D8" s="18">
+        <v>18</v>
+      </c>
+      <c r="D8" s="17">
         <f>EffortRawData!D5</f>
-        <v>9</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <f>EffortRawData!F$6</f>
         <v>44230</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <f>EffortRawData!F5</f>
-        <v>9</v>
-      </c>
-      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
         <f t="shared" ref="C9:C21" si="0">C8-(C$8/$E$21)</f>
-        <v>8.3076923076923084</v>
-      </c>
-      <c r="D9" s="18">
+        <v>16.615384615384617</v>
+      </c>
+      <c r="D9" s="17">
         <f t="shared" ref="D9:D21" si="1">IF($B9=$B8,MAX(0,$D8-($B$8-$D8)/MAX(1,$E8)),$B9)</f>
-        <v>9</v>
-      </c>
-      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <f>EffortRawData!G$6</f>
         <v>44237</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <f>EffortRawData!G5</f>
-        <v>9</v>
-      </c>
-      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17">
         <f t="shared" si="0"/>
-        <v>7.6153846153846159</v>
-      </c>
-      <c r="D10" s="18">
+        <v>15.230769230769232</v>
+      </c>
+      <c r="D10" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
         <v>2</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <f>EffortRawData!H$6</f>
         <v>44244</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <f>EffortRawData!H5</f>
-        <v>9</v>
-      </c>
-      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
         <f t="shared" si="0"/>
-        <v>6.9230769230769234</v>
-      </c>
-      <c r="D11" s="18">
+        <v>13.846153846153847</v>
+      </c>
+      <c r="D11" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
         <v>3</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <f>EffortRawData!I$6</f>
         <v>44251</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <f>EffortRawData!I5</f>
-        <v>9</v>
-      </c>
-      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="C12" s="17">
         <f t="shared" si="0"/>
-        <v>6.2307692307692308</v>
-      </c>
-      <c r="D12" s="18">
+        <v>12.461538461538462</v>
+      </c>
+      <c r="D12" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
         <v>4</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <f>EffortRawData!J$6</f>
         <v>44258</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <f>EffortRawData!J5</f>
-        <v>9</v>
-      </c>
-      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="C13" s="17">
         <f t="shared" si="0"/>
-        <v>5.5384615384615383</v>
-      </c>
-      <c r="D13" s="18">
+        <v>11.076923076923077</v>
+      </c>
+      <c r="D13" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
         <v>5</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <f>EffortRawData!K$6</f>
         <v>44265</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <f>EffortRawData!K5</f>
-        <v>9</v>
-      </c>
-      <c r="C14" s="18">
+        <v>0</v>
+      </c>
+      <c r="C14" s="17">
         <f t="shared" si="0"/>
-        <v>4.8461538461538458</v>
-      </c>
-      <c r="D14" s="18">
+        <v>9.6923076923076916</v>
+      </c>
+      <c r="D14" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
         <v>6</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <f>EffortRawData!L$6</f>
         <v>44272</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <f>EffortRawData!L5</f>
-        <v>9</v>
-      </c>
-      <c r="C15" s="18">
+        <v>0</v>
+      </c>
+      <c r="C15" s="17">
         <f t="shared" si="0"/>
-        <v>4.1538461538461533</v>
-      </c>
-      <c r="D15" s="18">
+        <v>8.3076923076923066</v>
+      </c>
+      <c r="D15" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
         <v>7</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <f>EffortRawData!M$6</f>
         <v>44279</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <f>EffortRawData!M5</f>
-        <v>9</v>
-      </c>
-      <c r="C16" s="18">
+        <v>0</v>
+      </c>
+      <c r="C16" s="17">
         <f t="shared" si="0"/>
-        <v>3.4615384615384608</v>
-      </c>
-      <c r="D16" s="18">
+        <v>6.9230769230769216</v>
+      </c>
+      <c r="D16" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
         <v>8</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <f>EffortRawData!N$6</f>
         <v>44286</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <f>EffortRawData!N5</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" si="0"/>
+        <v>5.5384615384615365</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
         <v>9</v>
       </c>
-      <c r="C17" s="18">
-        <f t="shared" si="0"/>
-        <v>2.7692307692307683</v>
-      </c>
-      <c r="D17" s="18">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E17" s="13">
-        <v>9</v>
-      </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <f>EffortRawData!O$6</f>
         <v>44293</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <f>EffortRawData!O5</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="17">
         <f t="shared" si="0"/>
-        <v>2.0769230769230758</v>
-      </c>
-      <c r="D18" s="18">
+        <v>4.1538461538461515</v>
+      </c>
+      <c r="D18" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
         <v>10</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <f>EffortRawData!P$6</f>
         <v>44300</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <f>EffortRawData!P5</f>
-        <v>9</v>
-      </c>
-      <c r="C19" s="18">
+        <v>0</v>
+      </c>
+      <c r="C19" s="17">
         <f t="shared" si="0"/>
-        <v>1.3846153846153835</v>
-      </c>
-      <c r="D19" s="18">
+        <v>2.7692307692307669</v>
+      </c>
+      <c r="D19" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
         <v>11</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <f>EffortRawData!Q$6</f>
         <v>44307</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <f>EffortRawData!Q5</f>
-        <v>9</v>
-      </c>
-      <c r="C20" s="18">
+        <v>0</v>
+      </c>
+      <c r="C20" s="17">
         <f t="shared" si="0"/>
-        <v>0.69230769230769118</v>
-      </c>
-      <c r="D20" s="18">
+        <v>1.3846153846153824</v>
+      </c>
+      <c r="D20" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
         <v>12</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <f>EffortRawData!R$6</f>
         <v>44314</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <f>EffortRawData!R5</f>
-        <v>9</v>
-      </c>
-      <c r="C21" s="18">
+        <v>0</v>
+      </c>
+      <c r="C21" s="17">
         <f t="shared" si="0"/>
-        <v>-1.1102230246251565E-15</v>
-      </c>
-      <c r="D21" s="18">
+        <v>-2.2204460492503131E-15</v>
+      </c>
+      <c r="D21" s="17">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
         <v>13</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
